--- a/examples/data/indirect_analysis/output/hazard_names.xlsx
+++ b/examples/data/indirect_analysis/output/hazard_names.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>data\indirect_analysis\static\hazard\Inundacion_Fluvial_tr1000.tif</t>
+          <t>C:\Users\hauth\bitbucket\ra2ce\examples\data\indirect_analysis\static\hazard\Inundacion_Fluvial_tr1000.tif</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>data\indirect_analysis\static\hazard\Inundacion_Fluvial_tr1000.tif</t>
+          <t>C:\Users\hauth\bitbucket\ra2ce\examples\data\indirect_analysis\static\hazard\Inundacion_Fluvial_tr1000.tif</t>
         </is>
       </c>
     </row>
